--- a/_Atis.xlsx
+++ b/_Atis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vonhorsten\Coden\Python\MTTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coden\Python\text-to-speech\MTTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9EE259-28FF-4BF4-889F-6E33ADD2A7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D8764A-0DF0-4B2A-9086-CF9EB69B8061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32784" yWindow="1368" windowWidth="28020" windowHeight="13548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="155">
   <si>
     <t>Text</t>
   </si>
@@ -439,6 +439,57 @@
   </si>
   <si>
     <t>TACAN channel</t>
+  </si>
+  <si>
+    <t>thunderstorm</t>
+  </si>
+  <si>
+    <t>ThunderStorm</t>
+  </si>
+  <si>
+    <t>local time</t>
+  </si>
+  <si>
+    <t>LocalTime</t>
+  </si>
+  <si>
+    <t>zulu time</t>
+  </si>
+  <si>
+    <t>TimeZulu</t>
+  </si>
+  <si>
+    <t>tower frequency</t>
+  </si>
+  <si>
+    <t>TowerFrequency</t>
+  </si>
+  <si>
+    <t>visibility</t>
+  </si>
+  <si>
+    <t>VOR frequency</t>
+  </si>
+  <si>
+    <t>VORFrequency</t>
+  </si>
+  <si>
+    <t>WeatherPhenomena</t>
+  </si>
+  <si>
+    <t>weather phenomena</t>
+  </si>
+  <si>
+    <t>wind from</t>
+  </si>
+  <si>
+    <t>WindFrom</t>
+  </si>
+  <si>
+    <t>zulu</t>
+  </si>
+  <si>
+    <t>Zulu</t>
   </si>
 </sst>
 </file>
@@ -765,29 +816,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -825,7 +876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -833,7 +884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -841,7 +892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -849,7 +900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -857,7 +908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -865,7 +916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -873,7 +924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -881,7 +932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -889,7 +940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -897,7 +948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -905,7 +956,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -913,7 +964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -921,7 +972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -929,7 +980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -937,7 +988,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -945,7 +996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -953,7 +1004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -961,7 +1012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -969,7 +1020,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -977,7 +1028,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -985,7 +1036,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -993,7 +1044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>105</v>
       </c>
@@ -1001,7 +1052,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -1009,7 +1060,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -1017,7 +1068,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -1025,7 +1076,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -1033,7 +1084,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -1041,7 +1092,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>111</v>
       </c>
@@ -1049,7 +1100,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>112</v>
       </c>
@@ -1057,7 +1108,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -1065,7 +1116,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -1073,7 +1124,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -1081,7 +1132,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -1089,7 +1140,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>117</v>
       </c>
@@ -1097,7 +1148,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>118</v>
       </c>
@@ -1105,7 +1156,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -1113,7 +1164,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -1121,7 +1172,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -1129,7 +1180,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -1137,7 +1188,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -1145,7 +1196,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -1153,7 +1204,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -1161,7 +1212,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -1169,7 +1220,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -1177,7 +1228,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -1185,7 +1236,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -1193,7 +1244,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -1201,7 +1252,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -1209,7 +1260,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>122</v>
       </c>
@@ -1217,7 +1268,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>126</v>
       </c>
@@ -1225,7 +1276,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>132</v>
       </c>
@@ -1233,7 +1284,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>133</v>
       </c>
@@ -1241,7 +1292,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>74</v>
       </c>
@@ -1249,7 +1300,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>75</v>
       </c>
@@ -1257,7 +1308,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>127</v>
       </c>
@@ -1265,7 +1316,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>128</v>
       </c>
@@ -1273,7 +1324,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>134</v>
       </c>
@@ -1281,7 +1332,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>123</v>
       </c>
@@ -1289,7 +1340,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>129</v>
       </c>
@@ -1297,7 +1348,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>135</v>
       </c>
@@ -1305,7 +1356,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>124</v>
       </c>
@@ -1313,7 +1364,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -1321,7 +1372,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>137</v>
       </c>
@@ -1329,7 +1380,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>130</v>
       </c>
@@ -1337,12 +1388,84 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>131</v>
       </c>
       <c r="B66" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
